--- a/Homework/Excel_Practice_Student 1.xlsx
+++ b/Homework/Excel_Practice_Student 1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section02\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98255FE2-0CC6-4A0A-94F0-80A9E295F7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{825A525C-94AB-4BBD-96F7-4510A10315B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" firstSheet="2" activeTab="1" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" firstSheet="1" activeTab="3" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
     <sheet name="Loans" sheetId="2" r:id="rId2"/>
-    <sheet name="Functions" sheetId="3" r:id="rId3"/>
+    <sheet name="Roster" sheetId="4" r:id="rId3"/>
+    <sheet name="Credit Card" sheetId="5" r:id="rId4"/>
+    <sheet name="Functions" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="228">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -148,6 +150,12 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>Print as landscape</t>
+  </si>
+  <si>
+    <t>Scale to fit on 1 or x pages</t>
+  </si>
+  <si>
     <t>Principle</t>
   </si>
   <si>
@@ -178,6 +186,99 @@
     <t>Loan D</t>
   </si>
   <si>
+    <t>Semester Grades</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Homeroom</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Sarah Ashworth</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>Amanda Johnson</t>
+  </si>
+  <si>
+    <t>David Cline</t>
+  </si>
+  <si>
+    <t>Matthew Roberts</t>
+  </si>
+  <si>
+    <t>Sierra Chadwick</t>
+  </si>
+  <si>
+    <t>Ronnie Dangerfield</t>
+  </si>
+  <si>
+    <t>Thomas Cruise</t>
+  </si>
+  <si>
+    <t>Bradley Swickerwrath</t>
+  </si>
+  <si>
+    <t>Gracie Smith</t>
+  </si>
+  <si>
+    <t>John McDonald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raymond James </t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Credit Card Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Card </t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months </t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Citi Card</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
     <t>AND</t>
   </si>
   <si>
@@ -295,9 +396,6 @@
     <t xml:space="preserve">    Typhlosion</t>
   </si>
   <si>
-    <t>COUNT</t>
-  </si>
-  <si>
     <t>COUNTA</t>
   </si>
   <si>
@@ -460,9 +558,6 @@
     <t>IFS</t>
   </si>
   <si>
-    <t>MEDIAN</t>
-  </si>
-  <si>
     <t>Speed Category</t>
   </si>
   <si>
@@ -473,9 +568,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Blastoise</t>
-  </si>
-  <si>
-    <t>MODE</t>
   </si>
   <si>
     <t xml:space="preserve">    Trainer</t>
@@ -638,9 +730,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -674,7 +767,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,12 +794,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -822,11 +945,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -883,17 +1073,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,6 +1568,756 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C78-4339-B862-DDFE866FBB9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2111220664"/>
+        <c:axId val="1539103480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2111220664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1539103480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1539103480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111220664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Card Payments</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C0C-49DE-A408-0DD11A3A348A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C0C-49DE-A408-0DD11A3A348A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="832849576"/>
+        <c:axId val="1440444344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="832849576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440444344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1440444344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832849576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1391,7 +2358,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1935,6 +3988,86 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01344B5F-B4F1-ABCA-E6DA-FB6C02315295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E1CBBE-163E-FC96-D1A0-C3C6293CA15C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{01344B5F-B4F1-ABCA-E6DA-FB6C02315295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2232,10 +4365,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2CA6A-7C7B-42A2-BC97-252980B3146C}">
-  <dimension ref="A1:H19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2243,503 +4379,1005 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" ht="15">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24">
+      <c r="D1" s="32">
         <v>44853</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="20" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+    </row>
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="15">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="J3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="K3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="P3" s="33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+    </row>
+    <row r="4" spans="1:24" ht="15">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="26">
         <v>10</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="27">
         <v>40</v>
       </c>
-      <c r="E4" s="1">
-        <f>PRODUCT(C4,D4)</f>
-        <v>400</v>
-      </c>
-      <c r="F4" s="25">
+      <c r="E4" s="27">
+        <v>40</v>
+      </c>
+      <c r="F4" s="27">
+        <v>40</v>
+      </c>
+      <c r="G4" s="27">
+        <v>40</v>
+      </c>
+      <c r="H4" s="27">
+        <v>40</v>
+      </c>
+      <c r="I4" s="28">
+        <f>(($C4*D4)+(C4*E4)+(F4*C4)+(G4*C4)+(H4*C4))</f>
+        <v>2000</v>
+      </c>
+      <c r="J4" s="27">
         <f>IF(D4&gt;40,D4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <f xml:space="preserve"> 0.5*F4*C4</f>
+      <c r="K4" s="27">
+        <f t="shared" ref="K4:N14" si="0">IF(E4&gt;40,E4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <f>PRODUCT(E4)+((F4*C4)*1.5)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="L4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="39">
+        <f xml:space="preserve"> 0.5*(C4*(J4+K4+L4+M4+N4))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="28">
+        <f>I4+O4</f>
+        <v>2000</v>
+      </c>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+    </row>
+    <row r="5" spans="1:24" ht="15">
+      <c r="A5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="26">
         <v>15</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="27">
         <v>35</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E14" si="0">PRODUCT(C5,D5)</f>
+      <c r="E5" s="27">
+        <v>35</v>
+      </c>
+      <c r="F5" s="27">
+        <v>35</v>
+      </c>
+      <c r="G5" s="27">
+        <v>35</v>
+      </c>
+      <c r="H5" s="27">
+        <v>35</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I14" si="1">(($C5*D5)+(C5*E5)+(F5*C5)+(G5*C5)+(H5*C5))</f>
+        <v>2625</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" ref="J5:J14" si="2">IF(D5&gt;40,D5-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="39">
+        <f t="shared" ref="O5:O14" si="3" xml:space="preserve"> 0.5*(C5*(J5+K5+L5+M5+N5))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
+        <f t="shared" ref="P5:P14" si="4">I5+O5</f>
+        <v>2625</v>
+      </c>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+    </row>
+    <row r="6" spans="1:24" ht="15">
+      <c r="A6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="27">
+        <v>30</v>
+      </c>
+      <c r="E6" s="27">
+        <v>30</v>
+      </c>
+      <c r="F6" s="27">
+        <v>30</v>
+      </c>
+      <c r="G6" s="27">
+        <v>30</v>
+      </c>
+      <c r="H6" s="27">
+        <v>30</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
         <v>525</v>
       </c>
-      <c r="F5" s="25">
-        <f t="shared" ref="F5:F14" si="1">IF(D5&gt;40,D5-40,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5:G14" si="2" xml:space="preserve"> 0.5*F5*C5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H14" si="3">PRODUCT(E5)+((F5*C5)*1.5)</f>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D6" s="25">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="F6" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="J6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="39">
         <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+    </row>
+    <row r="7" spans="1:24" ht="15">
+      <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="26">
         <v>20.100000000000001</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="27">
         <v>50</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="27">
+        <v>50</v>
+      </c>
+      <c r="F7" s="27">
+        <v>50</v>
+      </c>
+      <c r="G7" s="27">
+        <v>50</v>
+      </c>
+      <c r="H7" s="27">
+        <v>50</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="1"/>
+        <v>5025.0000000000009</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="27">
         <f t="shared" si="0"/>
-        <v>1005.0000000000001</v>
-      </c>
-      <c r="F7" s="25">
+        <v>10</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N7" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O7" s="39">
+        <f t="shared" si="3"/>
+        <v>502.50000000000006</v>
+      </c>
+      <c r="P7" s="28">
+        <f t="shared" si="4"/>
+        <v>5527.5000000000009</v>
+      </c>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+    </row>
+    <row r="8" spans="1:24" ht="15">
+      <c r="A8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="26">
+        <v>5.75</v>
+      </c>
+      <c r="D8" s="27">
+        <v>55</v>
+      </c>
+      <c r="E8" s="27">
+        <v>55</v>
+      </c>
+      <c r="F8" s="27">
+        <v>55</v>
+      </c>
+      <c r="G8" s="27">
+        <v>55</v>
+      </c>
+      <c r="H8" s="27">
+        <v>55</v>
+      </c>
+      <c r="I8" s="28">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
+        <v>1581.25</v>
+      </c>
+      <c r="J8" s="27">
         <f t="shared" si="2"/>
-        <v>100.5</v>
-      </c>
-      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O8" s="39">
         <f t="shared" si="3"/>
-        <v>1306.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5.75</v>
-      </c>
-      <c r="D8" s="25">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1">
+        <v>215.625</v>
+      </c>
+      <c r="P8" s="28">
+        <f t="shared" si="4"/>
+        <v>1796.875</v>
+      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+    </row>
+    <row r="9" spans="1:24" ht="15">
+      <c r="A9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="26">
+        <v>12</v>
+      </c>
+      <c r="D9" s="27">
+        <v>45</v>
+      </c>
+      <c r="E9" s="27">
+        <v>45</v>
+      </c>
+      <c r="F9" s="27">
+        <v>45</v>
+      </c>
+      <c r="G9" s="27">
+        <v>45</v>
+      </c>
+      <c r="H9" s="27">
+        <v>45</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="27">
         <f t="shared" si="0"/>
-        <v>316.25</v>
-      </c>
-      <c r="F8" s="25">
+        <v>5</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="39">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="P9" s="28">
+        <f t="shared" si="4"/>
+        <v>2850</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+    </row>
+    <row r="10" spans="1:24" ht="15">
+      <c r="A10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="26">
+        <v>6.55</v>
+      </c>
+      <c r="D10" s="27">
+        <v>25</v>
+      </c>
+      <c r="E10" s="27">
+        <v>25</v>
+      </c>
+      <c r="F10" s="27">
+        <v>25</v>
+      </c>
+      <c r="G10" s="27">
+        <v>25</v>
+      </c>
+      <c r="H10" s="27">
+        <v>25</v>
+      </c>
+      <c r="I10" s="28">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>43.125</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
-        <v>445.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-      <c r="D9" s="25">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6.55</v>
-      </c>
-      <c r="D10" s="25">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>163.75</v>
-      </c>
-      <c r="F10" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+        <v>818.75</v>
+      </c>
+      <c r="J10" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="39">
         <f t="shared" si="3"/>
-        <v>163.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
+        <f t="shared" si="4"/>
+        <v>818.75</v>
+      </c>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="1:24" ht="15">
+      <c r="A11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="26">
         <v>30</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="27">
         <v>29</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>870</v>
-      </c>
-      <c r="F11" s="25">
+      <c r="E11" s="27">
+        <v>29</v>
+      </c>
+      <c r="F11" s="27">
+        <v>29</v>
+      </c>
+      <c r="G11" s="27">
+        <v>29</v>
+      </c>
+      <c r="H11" s="27">
+        <v>29</v>
+      </c>
+      <c r="I11" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
+        <v>4350</v>
+      </c>
+      <c r="J11" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="39">
         <f t="shared" si="3"/>
-        <v>870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
+        <f t="shared" si="4"/>
+        <v>4350</v>
+      </c>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+    </row>
+    <row r="12" spans="1:24" ht="15">
+      <c r="A12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="26">
         <v>75</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="27">
         <v>32</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="F12" s="25">
+      <c r="E12" s="27">
+        <v>32</v>
+      </c>
+      <c r="F12" s="27">
+        <v>32</v>
+      </c>
+      <c r="G12" s="27">
+        <v>32</v>
+      </c>
+      <c r="H12" s="27">
+        <v>32</v>
+      </c>
+      <c r="I12" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J12" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="39">
         <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+    </row>
+    <row r="13" spans="1:24" ht="15">
+      <c r="A13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="26">
         <v>40</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="27">
         <v>44</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="27">
+        <v>44</v>
+      </c>
+      <c r="F13" s="27">
+        <v>44</v>
+      </c>
+      <c r="G13" s="27">
+        <v>44</v>
+      </c>
+      <c r="H13" s="27">
+        <v>44</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="1"/>
+        <v>8800</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="27">
         <f t="shared" si="0"/>
-        <v>1760</v>
-      </c>
-      <c r="F13" s="25">
+        <v>4</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N13" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O13" s="39">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="P13" s="28">
+        <f t="shared" si="4"/>
+        <v>9200</v>
+      </c>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+    </row>
+    <row r="14" spans="1:24" ht="15">
+      <c r="A14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="26">
+        <v>25</v>
+      </c>
+      <c r="D14" s="27">
+        <v>22</v>
+      </c>
+      <c r="E14" s="27">
+        <v>22</v>
+      </c>
+      <c r="F14" s="27">
+        <v>22</v>
+      </c>
+      <c r="G14" s="27">
+        <v>22</v>
+      </c>
+      <c r="H14" s="27">
+        <v>22</v>
+      </c>
+      <c r="I14" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>25</v>
-      </c>
-      <c r="D14" s="25">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+        <v>2750</v>
+      </c>
+      <c r="J14" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="39">
         <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28">
+        <f t="shared" si="4"/>
+        <v>2750</v>
+      </c>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+    </row>
+    <row r="15" spans="1:24" ht="15">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+    </row>
+    <row r="16" spans="1:24" ht="15">
+      <c r="A16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="26">
         <f>MAX(C4:C14)</f>
         <v>75</v>
       </c>
-      <c r="D16" s="25">
-        <f t="shared" ref="D16:H16" si="4">MAX(D4:D14)</f>
+      <c r="D16" s="27">
+        <f t="shared" ref="D16:P16" si="5">MAX(D4:D14)</f>
         <v>55</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="4"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="28">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="4"/>
-        <v>100.5</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="28">
+        <f t="shared" si="5"/>
+        <v>502.50000000000006</v>
+      </c>
+      <c r="P16" s="28">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15">
+      <c r="A17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="26">
         <f>MIN(C4:C14)</f>
         <v>3.5</v>
       </c>
-      <c r="D17" s="25">
-        <f t="shared" ref="D17:H17" si="5">MIN(D4:D14)</f>
+      <c r="D17" s="27">
+        <f t="shared" ref="D17:P17" si="6">MIN(D4:D14)</f>
         <v>22</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="5"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="5"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="28">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="P17" s="28">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15">
+      <c r="A18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="26">
         <f>AVERAGE(C4:C14)</f>
         <v>22.081818181818178</v>
       </c>
-      <c r="D18" s="25">
-        <f t="shared" ref="D18:H18" si="6">AVERAGE(D4:D14)</f>
+      <c r="D18" s="27">
+        <f t="shared" ref="D18:P18" si="7">AVERAGE(D4:D14)</f>
         <v>37</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="6"/>
-        <v>785</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="6"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="28">
+        <f t="shared" si="7"/>
+        <v>3925</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="7"/>
         <v>3.0909090909090908</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="6"/>
-        <v>23.056818181818183</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="6"/>
-        <v>854.1704545454545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="28">
+        <f t="shared" si="7"/>
+        <v>115.28409090909091</v>
+      </c>
+      <c r="P18" s="28">
+        <f t="shared" si="7"/>
+        <v>4040.284090909091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15">
+      <c r="A19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="26">
         <f>SUM(C4:C14)</f>
         <v>242.89999999999998</v>
       </c>
-      <c r="D19" s="25">
-        <f t="shared" ref="D19:H19" si="7">SUM(D4:D14)</f>
+      <c r="D19" s="27">
+        <f t="shared" ref="D19:P19" si="8">SUM(D4:D14)</f>
         <v>407</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="7"/>
-        <v>8635</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="7"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="28">
+        <f t="shared" si="8"/>
+        <v>43175</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="7"/>
-        <v>253.625</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="7"/>
-        <v>9395.875</v>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="28">
+        <f t="shared" si="8"/>
+        <v>1268.125</v>
+      </c>
+      <c r="P19" s="28">
+        <f t="shared" si="8"/>
+        <v>44443.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2747,7 +5385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AA2E7-F047-42D2-AD6F-D303D1F75E1A}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2764,32 +5402,32 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>20000</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="D3">
@@ -2810,12 +5448,12 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>15000</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="D4">
@@ -2836,12 +5474,12 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D5">
@@ -2862,12 +5500,12 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>60000</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>0.246</v>
       </c>
       <c r="D6">
@@ -2893,6 +5531,530 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C425AB-7481-4BB1-A781-BE0054645615}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="30"/>
+      <c r="B2" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="30">
+        <v>12</v>
+      </c>
+      <c r="D3" s="30">
+        <v>85</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="30">
+        <v>11</v>
+      </c>
+      <c r="D4" s="30">
+        <v>72</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="30">
+        <v>13</v>
+      </c>
+      <c r="D5" s="30">
+        <v>60</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="30">
+        <v>12</v>
+      </c>
+      <c r="D6" s="30">
+        <v>95</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="30">
+        <v>14</v>
+      </c>
+      <c r="D7" s="30">
+        <v>88</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="30">
+        <v>12</v>
+      </c>
+      <c r="D8" s="30">
+        <v>99</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="30">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30">
+        <v>75</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="30">
+        <v>13</v>
+      </c>
+      <c r="D10" s="30">
+        <v>100</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="30">
+        <v>13</v>
+      </c>
+      <c r="D11" s="30">
+        <v>75</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="43">
+        <v>15</v>
+      </c>
+      <c r="D12" s="43">
+        <v>85</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="30">
+        <v>11</v>
+      </c>
+      <c r="D13" s="30">
+        <v>85</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="30">
+        <f>MIN(C3:C13)</f>
+        <v>11</v>
+      </c>
+      <c r="D15" s="45">
+        <f>MIN(D3:D13)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="30">
+        <f>MAX(C3:C13)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="46">
+        <f>MAX(D3:D13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="30">
+        <f>AVERAGE(C3:C13)</f>
+        <v>12.454545454545455</v>
+      </c>
+      <c r="D17" s="44">
+        <f>AVERAGE(D3:D13)</f>
+        <v>83.545454545454547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="30">
+        <f>MODE(C3:C13)</f>
+        <v>12</v>
+      </c>
+      <c r="D18" s="30">
+        <f>MODE(D3:D13)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="30">
+        <f>MEDIAN(C3:C13)</f>
+        <v>12</v>
+      </c>
+      <c r="D19" s="30">
+        <f>MEDIAN(D3:D13)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="30">
+        <f>COUNT(C3:C13)</f>
+        <v>11</v>
+      </c>
+      <c r="D20" s="30">
+        <f>COUNT(D3:D13)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDCA331-CE0C-4D60-8DC3-DB68DDEADEA8}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="29">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="48">
+        <v>0.21</v>
+      </c>
+      <c r="D3" s="30">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29">
+        <f>B3*C3</f>
+        <v>420</v>
+      </c>
+      <c r="F3" s="29">
+        <f>SUM(B3,E3)</f>
+        <v>2420</v>
+      </c>
+      <c r="G3" s="29">
+        <f>F3/D3</f>
+        <v>806.66666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="29">
+        <v>450</v>
+      </c>
+      <c r="C4" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="30">
+        <v>3</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" ref="E4:E7" si="0">B4*C4</f>
+        <v>112.5</v>
+      </c>
+      <c r="F4" s="29">
+        <f t="shared" ref="F4:F7" si="1">SUM(B4,E4)</f>
+        <v>562.5</v>
+      </c>
+      <c r="G4" s="29">
+        <f t="shared" ref="G4:G7" si="2">F4/D4</f>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="29">
+        <v>975</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0.27</v>
+      </c>
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>263.25</v>
+      </c>
+      <c r="F5" s="29">
+        <f t="shared" si="1"/>
+        <v>1238.25</v>
+      </c>
+      <c r="G5" s="29">
+        <f t="shared" si="2"/>
+        <v>412.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="29">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="F6" s="29">
+        <f t="shared" si="1"/>
+        <v>1725</v>
+      </c>
+      <c r="G6" s="29">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="29">
+        <v>780</v>
+      </c>
+      <c r="C7" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="30">
+        <v>3</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="F7" s="29">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="G7" s="29">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB70C1B-75BF-4BA5-9170-95D94596A40F}">
   <dimension ref="A1:N240"/>
   <sheetViews>
@@ -2919,61 +6081,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3">
         <v>45</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H3" s="3">
         <v>45</v>
@@ -2982,20 +6144,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3">
         <v>60</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H4" s="3">
         <v>60</v>
@@ -3004,20 +6166,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3">
         <v>80</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H5" s="3">
         <v>80</v>
@@ -3026,20 +6188,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3">
         <v>65</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H6" s="3">
         <v>65</v>
@@ -3048,20 +6210,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3">
         <v>80</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H7" s="3">
         <v>80</v>
@@ -3070,20 +6232,20 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3">
         <v>100</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -3092,20 +6254,20 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C9" s="3">
         <v>43</v>
       </c>
       <c r="D9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H9" s="3">
         <v>43</v>
@@ -3114,20 +6276,20 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3">
         <v>58</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3">
         <v>58</v>
@@ -3136,20 +6298,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3">
         <v>78</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H11" s="3">
         <v>78</v>
@@ -3158,36 +6320,36 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4">
         <v>45</v>
@@ -3196,72 +6358,72 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4">
         <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4">
         <v>80</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4">
         <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4">
         <v>80</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4">
         <v>100</v>
@@ -3270,10 +6432,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4">
         <v>43</v>
@@ -3282,10 +6444,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4">
         <v>58</v>
@@ -3294,10 +6456,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C23" s="4">
         <v>78</v>
@@ -3305,38 +6467,38 @@
       <c r="D23" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="A25" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3">
         <v>49</v>
@@ -3345,22 +6507,22 @@
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3">
         <v>63</v>
@@ -3369,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G28" s="12">
         <v>1</v>
@@ -3378,10 +6540,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3">
         <v>83</v>
@@ -3390,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G29" s="12">
         <v>1</v>
@@ -3399,10 +6561,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C30" s="3">
         <v>43</v>
@@ -3411,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G30" s="12">
         <v>2</v>
@@ -3420,10 +6582,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3">
         <v>58</v>
@@ -3432,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G31" s="15">
         <v>2</v>
@@ -3442,10 +6604,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3">
         <v>78</v>
@@ -3456,10 +6618,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3">
         <v>65</v>
@@ -3470,10 +6632,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C34" s="3">
         <v>80</v>
@@ -3484,10 +6646,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
         <v>100</v>
@@ -3498,10 +6660,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3">
         <v>43</v>
@@ -3512,10 +6674,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3">
         <v>58</v>
@@ -3526,10 +6688,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3">
         <v>78</v>
@@ -3540,65 +6702,65 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="F40" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="A40" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="F40" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3">
         <v>305</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
@@ -3607,25 +6769,25 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D43" s="3">
         <v>510</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I43" s="3">
         <v>510</v>
@@ -3633,25 +6795,25 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D44" s="3">
         <v>490</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I44" s="3">
         <v>490</v>
@@ -3659,25 +6821,25 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D45" s="3">
         <v>335</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I45" s="3">
         <v>335</v>
@@ -3685,25 +6847,25 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D46" s="3">
         <v>465</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="I46" s="3">
         <v>465</v>
@@ -3711,25 +6873,25 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D47" s="3">
         <v>475</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I47" s="3">
         <v>475</v>
@@ -3737,25 +6899,25 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D48" s="3">
         <v>525</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I48" s="3">
         <v>525</v>
@@ -3763,25 +6925,25 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D49" s="3">
         <v>385</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I49" s="3">
         <v>385</v>
@@ -3789,20 +6951,20 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
         <v>420</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3">
@@ -3811,25 +6973,25 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D51" s="3">
         <v>349</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I51" s="3">
         <v>349</v>
@@ -3837,20 +6999,20 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
         <v>253</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3">
@@ -3859,25 +7021,25 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D53" s="3">
         <v>395</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I53" s="3">
         <v>395</v>
@@ -3885,25 +7047,25 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D54" s="3">
         <v>310</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I54" s="3">
         <v>310</v>
@@ -3911,20 +7073,20 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3">
         <v>475</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3">
@@ -3933,25 +7095,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D56" s="3">
         <v>505</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I56" s="3">
         <v>505</v>
@@ -3959,20 +7121,20 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3">
         <v>455</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3">
@@ -3981,20 +7143,20 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
         <v>405</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3">
@@ -4003,20 +7165,20 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
         <v>438</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3">
@@ -4025,25 +7187,25 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D60" s="3">
         <v>310</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I60" s="3">
         <v>310</v>
@@ -4051,20 +7213,20 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3">
@@ -4072,61 +7234,61 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="F64" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="A64" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="F64" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3">
         <v>305</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3">
@@ -4135,25 +7297,25 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D67" s="3">
         <v>510</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I67" s="3">
         <v>510</v>
@@ -4161,25 +7323,25 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D68" s="3">
         <v>490</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I68" s="3">
         <v>490</v>
@@ -4187,343 +7349,343 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D69" s="3">
         <v>335</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H69" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I69" s="3">
         <v>335</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D70" s="3">
         <v>465</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="I70" s="3">
         <v>465</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D71" s="3">
         <v>475</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I71" s="3">
         <v>475</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D72" s="3">
         <v>525</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I72" s="3">
         <v>525</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D73" s="3">
         <v>385</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I73" s="3">
         <v>385</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3">
         <v>420</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3">
         <v>420</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="3" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D75" s="3">
         <v>349</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I75" s="3">
         <v>349</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
         <v>253</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3">
         <v>253</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D77" s="3">
         <v>395</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I77" s="3">
         <v>395</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D78" s="3">
         <v>310</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I78" s="3">
         <v>310</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
         <v>475</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3">
         <v>475</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D80" s="3">
         <v>505</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I80" s="3">
         <v>505</v>
@@ -4531,20 +7693,20 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
         <v>455</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3">
@@ -4553,20 +7715,20 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
         <v>405</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3">
@@ -4575,20 +7737,20 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
         <v>438</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3">
@@ -4597,25 +7759,25 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D84" s="3">
         <v>310</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I84" s="3">
         <v>310</v>
@@ -4623,20 +7785,20 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
         <v>200</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3">
@@ -4645,41 +7807,41 @@
     </row>
     <row r="86" spans="1:9">
       <c r="F86" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
+      <c r="A88" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="3" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C90" s="3">
         <v>49</v>
@@ -4690,10 +7852,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C91" s="3">
         <v>63</v>
@@ -4702,21 +7864,21 @@
         <v>1</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="3" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C92" s="3">
         <v>83</v>
@@ -4725,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G92" s="12">
         <v>1</v>
@@ -4734,10 +7896,10 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C93" s="3">
         <v>43</v>
@@ -4746,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G93" s="15">
         <v>2</v>
@@ -4755,10 +7917,10 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C94" s="3">
         <v>58</v>
@@ -4767,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G94" s="12">
         <v>1</v>
@@ -4776,10 +7938,10 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C95" s="3">
         <v>78</v>
@@ -4788,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G95" s="15">
         <v>2</v>
@@ -4797,10 +7959,10 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C96" s="3">
         <v>65</v>
@@ -4811,10 +7973,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C97" s="3">
         <v>80</v>
@@ -4825,10 +7987,10 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="3" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C98" s="3">
         <v>100</v>
@@ -4839,10 +8001,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C99" s="3">
         <v>43</v>
@@ -4853,10 +8015,10 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="3" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C100" s="3">
         <v>58</v>
@@ -4867,10 +8029,10 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C101" s="3">
         <v>78</v>
@@ -4880,60 +8042,60 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="F103" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
+      <c r="A103" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="F103" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2">
         <v>318</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H105" s="2">
         <v>318</v>
@@ -4941,19 +8103,19 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2">
         <v>405</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H106" s="2">
         <v>405</v>
@@ -4961,19 +8123,19 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C107" s="2">
         <v>525</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H107" s="2">
         <v>525</v>
@@ -4981,19 +8143,19 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2">
         <v>309</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H108" s="2">
         <v>309</v>
@@ -5001,19 +8163,19 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2">
         <v>405</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H109" s="2">
         <v>405</v>
@@ -5021,19 +8183,19 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C110" s="2">
         <v>534</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H110" s="2">
         <v>534</v>
@@ -5041,19 +8203,19 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C111" s="2">
         <v>314</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H111" s="2">
         <v>314</v>
@@ -5061,19 +8223,19 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2">
         <v>405</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H112" s="2">
         <v>405</v>
@@ -5081,19 +8243,19 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2">
         <v>530</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H113" s="2">
         <v>530</v>
@@ -5101,52 +8263,52 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="F115" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
+      <c r="A115" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="F115" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C117" s="2">
         <v>45</v>
@@ -5172,24 +8334,24 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C118" s="2">
         <v>60</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2">
         <v>80</v>
@@ -5218,10 +8380,10 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2">
         <v>65</v>
@@ -5229,10 +8391,10 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C121" s="2">
         <v>80</v>
@@ -5240,10 +8402,10 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C122" s="2">
         <v>100</v>
@@ -5251,10 +8413,10 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C123" s="2">
         <v>43</v>
@@ -5262,10 +8424,10 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C124" s="2">
         <v>58</v>
@@ -5273,10 +8435,10 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C125" s="2">
         <v>78</v>
@@ -5284,38 +8446,38 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
+      <c r="A127" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B129" s="2">
         <v>10</v>
@@ -5332,7 +8494,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B130" s="2">
         <v>12</v>
@@ -5349,7 +8511,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B131" s="2">
         <v>15</v>
@@ -5366,7 +8528,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="B132" s="2">
         <v>4</v>
@@ -5383,7 +8545,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B133" s="2">
         <v>10</v>
@@ -5400,7 +8562,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B134" s="2">
         <v>9</v>
@@ -5417,69 +8579,69 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="F138" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
+      <c r="A138" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="F138" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C140" s="2">
         <v>49</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H140" s="2">
         <v>49</v>
@@ -5487,19 +8649,19 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C141" s="2">
         <v>63</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H141" s="2">
         <v>63</v>
@@ -5507,19 +8669,19 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C142" s="2">
         <v>83</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H142" s="2">
         <v>83</v>
@@ -5527,19 +8689,19 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C143" s="2">
         <v>43</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H143" s="2">
         <v>43</v>
@@ -5547,19 +8709,19 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C144" s="2">
         <v>58</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H144" s="2">
         <v>58</v>
@@ -5567,19 +8729,19 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C145" s="2">
         <v>78</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H145" s="2">
         <v>78</v>
@@ -5587,19 +8749,19 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C146" s="2">
         <v>65</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H146" s="2">
         <v>65</v>
@@ -5607,19 +8769,19 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C147" s="2">
         <v>80</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H147" s="2">
         <v>80</v>
@@ -5627,19 +8789,19 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C148" s="2">
         <v>100</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H148" s="2">
         <v>100</v>
@@ -5647,52 +8809,52 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="H150" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="21"/>
-      <c r="N150" s="21"/>
+      <c r="A150" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="H150" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I150" s="23"/>
+      <c r="J150" s="23"/>
+      <c r="K150" s="23"/>
+      <c r="L150" s="23"/>
+      <c r="M150" s="23"/>
+      <c r="N150" s="23"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>9</v>
@@ -5700,13 +8862,13 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D152" s="2">
         <v>318</v>
@@ -5715,13 +8877,13 @@
         <v>1</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L152" s="2">
         <v>318</v>
@@ -5729,13 +8891,13 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D153" s="2">
         <v>405</v>
@@ -5744,13 +8906,13 @@
         <v>2</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L153" s="2">
         <v>405</v>
@@ -5758,13 +8920,13 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D154" s="2">
         <v>525</v>
@@ -5773,13 +8935,13 @@
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L154" s="2">
         <v>525</v>
@@ -5787,10 +8949,10 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D155" s="2">
         <v>309</v>
@@ -5799,10 +8961,10 @@
         <v>4</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="L155" s="2">
         <v>309</v>
@@ -5810,10 +8972,10 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D156" s="2">
         <v>405</v>
@@ -5822,10 +8984,10 @@
         <v>5</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="L156" s="2">
         <v>405</v>
@@ -5833,13 +8995,13 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D157" s="2">
         <v>534</v>
@@ -5848,13 +9010,13 @@
         <v>6</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L157" s="2">
         <v>534</v>
@@ -5862,10 +9024,10 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D158" s="2">
         <v>314</v>
@@ -5874,10 +9036,10 @@
         <v>7</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L158" s="2">
         <v>314</v>
@@ -5885,10 +9047,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D159" s="2">
         <v>405</v>
@@ -5897,10 +9059,10 @@
         <v>8</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L159" s="2">
         <v>405</v>
@@ -5908,10 +9070,10 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D160" s="2">
         <v>530</v>
@@ -5920,10 +9082,10 @@
         <v>9</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L160" s="2">
         <v>530</v>
@@ -5931,10 +9093,10 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D161" s="2">
         <v>195</v>
@@ -5943,10 +9105,10 @@
         <v>10</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="L161" s="2">
         <v>195</v>
@@ -5954,10 +9116,10 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D162" s="2">
         <v>205</v>
@@ -5966,10 +9128,10 @@
         <v>11</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="L162" s="2">
         <v>205</v>
@@ -5977,13 +9139,13 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D163" s="2">
         <v>395</v>
@@ -5992,13 +9154,13 @@
         <v>12</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L163" s="2">
         <v>395</v>
@@ -6006,13 +9168,13 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D164" s="2">
         <v>195</v>
@@ -6021,13 +9183,13 @@
         <v>13</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L164" s="2">
         <v>195</v>
@@ -6035,13 +9197,13 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D165" s="2">
         <v>205</v>
@@ -6050,13 +9212,13 @@
         <v>14</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L165" s="2">
         <v>205</v>
@@ -6064,13 +9226,13 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D166" s="2">
         <v>395</v>
@@ -6079,13 +9241,13 @@
         <v>15</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L166" s="2">
         <v>395</v>
@@ -6093,13 +9255,13 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D167" s="2">
         <v>251</v>
@@ -6108,13 +9270,13 @@
         <v>16</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L167" s="2">
         <v>251</v>
@@ -6122,13 +9284,13 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D168" s="2">
         <v>349</v>
@@ -6137,13 +9299,13 @@
         <v>17</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L168" s="2">
         <v>349</v>
@@ -6151,13 +9313,13 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D169" s="2">
         <v>479</v>
@@ -6166,13 +9328,13 @@
         <v>18</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L169" s="2">
         <v>479</v>
@@ -6180,10 +9342,10 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="2" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D170" s="2">
         <v>253</v>
@@ -6192,10 +9354,10 @@
         <v>19</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="L170" s="2">
         <v>253</v>
@@ -6203,10 +9365,10 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D171" s="2">
         <v>413</v>
@@ -6215,10 +9377,10 @@
         <v>20</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="L171" s="2">
         <v>413</v>
@@ -6226,51 +9388,51 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D172" s="2">
         <v>262</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D173" s="2">
         <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="B175" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C175" s="21"/>
-      <c r="D175" s="21"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
+      <c r="B175" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
     </row>
     <row r="176" spans="1:12">
       <c r="B176" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>9</v>
@@ -6278,72 +9440,72 @@
     </row>
     <row r="177" spans="2:9">
       <c r="B177" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D177" s="2">
         <v>318</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="2:9">
       <c r="B178" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D178" s="2">
         <v>405</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="2:9">
       <c r="B179" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D179" s="2">
         <v>525</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="2:9">
       <c r="B180" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D180" s="2">
         <v>309</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G180" s="17"/>
     </row>
     <row r="181" spans="2:9">
       <c r="B181" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D181" s="2">
         <v>405</v>
@@ -6351,10 +9513,10 @@
     </row>
     <row r="182" spans="2:9">
       <c r="B182" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D182" s="2">
         <v>534</v>
@@ -6362,10 +9524,10 @@
     </row>
     <row r="183" spans="2:9">
       <c r="B183" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D183" s="2">
         <v>314</v>
@@ -6373,10 +9535,10 @@
     </row>
     <row r="184" spans="2:9">
       <c r="B184" s="2" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D184" s="2">
         <v>405</v>
@@ -6384,10 +9546,10 @@
     </row>
     <row r="185" spans="2:9">
       <c r="B185" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D185" s="2">
         <v>530</v>
@@ -6395,50 +9557,50 @@
     </row>
     <row r="186" spans="2:9">
       <c r="B186" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="2:9">
-      <c r="B187" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="21"/>
+      <c r="B187" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23"/>
+      <c r="I187" s="23"/>
     </row>
     <row r="188" spans="2:9">
       <c r="B188" s="2" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="2:9">
       <c r="B189" s="2" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D189" s="2">
         <v>318</v>
@@ -6447,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H189" s="12">
         <v>1</v>
@@ -6456,10 +9618,10 @@
     </row>
     <row r="190" spans="2:9">
       <c r="B190" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D190" s="2">
         <v>405</v>
@@ -6468,7 +9630,7 @@
         <v>2</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H190" s="12">
         <v>2</v>
@@ -6477,10 +9639,10 @@
     </row>
     <row r="191" spans="2:9">
       <c r="B191" s="2" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D191" s="2">
         <v>525</v>
@@ -6489,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H191" s="12">
         <v>3</v>
@@ -6498,10 +9660,10 @@
     </row>
     <row r="192" spans="2:9">
       <c r="B192" s="2" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D192" s="2">
         <v>309</v>
@@ -6510,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H192" s="12">
         <v>1</v>
@@ -6519,10 +9681,10 @@
     </row>
     <row r="193" spans="1:9">
       <c r="B193" s="2" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D193" s="2">
         <v>405</v>
@@ -6531,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H193" s="12">
         <v>2</v>
@@ -6540,10 +9702,10 @@
     </row>
     <row r="194" spans="1:9">
       <c r="B194" s="2" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D194" s="2">
         <v>534</v>
@@ -6552,7 +9714,7 @@
         <v>2</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H194" s="12">
         <v>3</v>
@@ -6561,10 +9723,10 @@
     </row>
     <row r="195" spans="1:9">
       <c r="B195" s="2" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D195" s="2">
         <v>314</v>
@@ -6573,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H195" s="12">
         <v>1</v>
@@ -6582,10 +9744,10 @@
     </row>
     <row r="196" spans="1:9">
       <c r="B196" s="2" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D196" s="2">
         <v>405</v>
@@ -6594,7 +9756,7 @@
         <v>2</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H196" s="12">
         <v>2</v>
@@ -6603,10 +9765,10 @@
     </row>
     <row r="197" spans="1:9">
       <c r="B197" s="2" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D197" s="2">
         <v>530</v>
@@ -6615,7 +9777,7 @@
         <v>3</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H197" s="12">
         <v>3</v>
@@ -6624,10 +9786,10 @@
     </row>
     <row r="198" spans="1:9">
       <c r="B198" s="2" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D198" s="2">
         <v>195</v>
@@ -6636,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H198" s="12">
         <v>1</v>
@@ -6645,10 +9807,10 @@
     </row>
     <row r="199" spans="1:9">
       <c r="B199" s="2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D199" s="2">
         <v>205</v>
@@ -6657,7 +9819,7 @@
         <v>2</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H199" s="12">
         <v>2</v>
@@ -6666,10 +9828,10 @@
     </row>
     <row r="200" spans="1:9">
       <c r="B200" s="2" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D200" s="2">
         <v>395</v>
@@ -6678,7 +9840,7 @@
         <v>2</v>
       </c>
       <c r="G200" s="14" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H200" s="15">
         <v>3</v>
@@ -6687,10 +9849,10 @@
     </row>
     <row r="201" spans="1:9">
       <c r="B201" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D201" s="2">
         <v>195</v>
@@ -6700,28 +9862,28 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
+      <c r="A203" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>9</v>
@@ -6732,13 +9894,13 @@
         <v>1</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E205" s="2">
         <v>318</v>
@@ -6749,13 +9911,13 @@
         <v>2</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E206" s="2">
         <v>405</v>
@@ -6766,19 +9928,19 @@
         <v>3</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E207" s="2">
         <v>525</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6786,16 +9948,16 @@
         <v>4</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E208" s="2">
         <v>309</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="G208" s="19"/>
     </row>
@@ -6804,10 +9966,10 @@
         <v>5</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E209" s="2">
         <v>405</v>
@@ -6818,13 +9980,13 @@
         <v>6</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E210" s="2">
         <v>534</v>
@@ -6835,10 +9997,10 @@
         <v>7</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E211" s="2">
         <v>314</v>
@@ -6849,10 +10011,10 @@
         <v>8</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E212" s="2">
         <v>405</v>
@@ -6863,10 +10025,10 @@
         <v>9</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E213" s="2">
         <v>530</v>
@@ -6877,10 +10039,10 @@
         <v>10</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E214" s="2">
         <v>195</v>
@@ -6891,10 +10053,10 @@
         <v>11</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E215" s="2">
         <v>205</v>
@@ -6905,13 +10067,13 @@
         <v>12</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E216" s="2">
         <v>395</v>
@@ -6922,13 +10084,13 @@
         <v>13</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E217" s="2">
         <v>195</v>
@@ -6939,13 +10101,13 @@
         <v>14</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E218" s="2">
         <v>205</v>
@@ -6956,13 +10118,13 @@
         <v>15</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E219" s="2">
         <v>395</v>
@@ -6973,13 +10135,13 @@
         <v>16</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E220" s="2">
         <v>251</v>
@@ -6990,13 +10152,13 @@
         <v>17</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E221" s="2">
         <v>349</v>
@@ -7007,13 +10169,13 @@
         <v>18</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E222" s="2">
         <v>479</v>
@@ -7024,10 +10186,10 @@
         <v>19</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E223" s="2">
         <v>253</v>
@@ -7038,10 +10200,10 @@
         <v>20</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E224" s="2">
         <v>413</v>
@@ -7052,13 +10214,13 @@
         <v>21</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E225" s="2">
         <v>262</v>
@@ -7069,46 +10231,46 @@
         <v>22</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E226" s="2">
         <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
+      <c r="A229" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229" s="23"/>
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C231" s="2">
         <v>45</v>
@@ -7116,10 +10278,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C232" s="2">
         <v>60</v>
@@ -7127,10 +10289,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C233" s="2">
         <v>80</v>
@@ -7138,10 +10300,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C234" s="2">
         <v>39</v>
@@ -7149,10 +10311,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C235" s="2">
         <v>58</v>
@@ -7160,10 +10322,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C236" s="2">
         <v>78</v>
@@ -7171,10 +10333,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C237" s="2">
         <v>44</v>
@@ -7182,10 +10344,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C238" s="2">
         <v>59</v>
@@ -7193,10 +10355,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C239" s="2">
         <v>79</v>
@@ -7204,11 +10366,20 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="A203:G203"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="H150:N150"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="F115:L115"/>
     <mergeCell ref="A1:D1"/>
@@ -7222,15 +10393,6 @@
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="F103:I103"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="A203:G203"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="H150:N150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
